--- a/GF_X-master/AAAGameData/Languages/ChineseTraditional.xlsx
+++ b/GF_X-master/AAAGameData/Languages/ChineseTraditional.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>BRAKE</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>獲取</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -217,7 +223,10 @@
     <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>測試</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -359,6 +368,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -2242,6 +2259,338 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -2258,179 +2607,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1052">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1053">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1054">
+            <xdr:cNvPr hidden="1" name="A1" id="1054">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
@@ -2505,18 +2682,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1055">
+            <xdr:cNvPr hidden="1" name="A2" id="1055">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
@@ -2591,18 +2768,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1056">
+            <xdr:cNvPr hidden="1" name="A3" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
@@ -2677,18 +2854,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1057">
+            <xdr:cNvPr hidden="1" name="A4" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
@@ -2763,18 +2940,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1058">
+            <xdr:cNvPr hidden="1" name="A5" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -2849,18 +3026,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1059">
+            <xdr:cNvPr hidden="1" name="A6" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -2935,18 +3112,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1060">
+            <xdr:cNvPr hidden="1" name="A7" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -3021,18 +3198,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1061">
+            <xdr:cNvPr hidden="1" name="A8" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -3107,18 +3284,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1062">
+            <xdr:cNvPr hidden="1" name="A9" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -3193,18 +3370,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1063">
+            <xdr:cNvPr hidden="1" name="A10" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
@@ -3279,18 +3456,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1064">
+            <xdr:cNvPr hidden="1" name="A11" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
@@ -3365,18 +3542,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1065">
+            <xdr:cNvPr hidden="1" name="A12" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
@@ -3451,18 +3628,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1066">
+            <xdr:cNvPr hidden="1" name="A13" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
@@ -3537,18 +3714,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1067">
+            <xdr:cNvPr hidden="1" name="A14" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
@@ -3623,18 +3800,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1068">
+            <xdr:cNvPr hidden="1" name="A15" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
@@ -3709,18 +3886,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1069">
+            <xdr:cNvPr hidden="1" name="A16" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
@@ -3795,18 +3972,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1070">
+            <xdr:cNvPr hidden="1" name="A17" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
@@ -3881,18 +4058,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1071">
+            <xdr:cNvPr hidden="1" name="A18" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
@@ -3967,18 +4144,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1072">
+            <xdr:cNvPr hidden="1" name="A19" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
@@ -4053,18 +4230,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1073">
+            <xdr:cNvPr hidden="1" name="A20" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
@@ -4139,18 +4316,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1074">
+            <xdr:cNvPr hidden="1" name="A21" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
@@ -4225,18 +4402,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1075">
+            <xdr:cNvPr hidden="1" name="A22" id="1075">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
@@ -4311,18 +4488,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1076">
+            <xdr:cNvPr hidden="1" name="A23" id="1076">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
@@ -4397,18 +4574,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1077">
+            <xdr:cNvPr hidden="1" name="A24" id="1077">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
@@ -4483,6 +4660,178 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4494,10 +4843,182 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1078">
+            <xdr:cNvPr hidden="1" name="A27" id="1080">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1078"/>
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4829,7 +5350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -5085,6 +5606,24 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5097,7 +5636,7 @@
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId452" name="A1">
+            <control shapeId="1054" r:id="rId532" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5119,7 +5658,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId453" name="A2">
+            <control shapeId="1055" r:id="rId533" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5141,7 +5680,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId454" name="A3">
+            <control shapeId="1056" r:id="rId534" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5163,7 +5702,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId455" name="A4">
+            <control shapeId="1057" r:id="rId535" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5185,7 +5724,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId456" name="A5">
+            <control shapeId="1058" r:id="rId536" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5207,7 +5746,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId457" name="A6">
+            <control shapeId="1059" r:id="rId537" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5229,7 +5768,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId458" name="A7">
+            <control shapeId="1060" r:id="rId538" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5251,7 +5790,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId459" name="A8">
+            <control shapeId="1061" r:id="rId539" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5273,7 +5812,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId460" name="A9">
+            <control shapeId="1062" r:id="rId540" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5295,7 +5834,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId461" name="A10">
+            <control shapeId="1063" r:id="rId541" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5317,7 +5856,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId462" name="A11">
+            <control shapeId="1064" r:id="rId542" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5339,7 +5878,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId463" name="A12">
+            <control shapeId="1065" r:id="rId543" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5361,7 +5900,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId464" name="A13">
+            <control shapeId="1066" r:id="rId544" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5383,7 +5922,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId465" name="A14">
+            <control shapeId="1067" r:id="rId545" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5405,7 +5944,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId466" name="A15">
+            <control shapeId="1068" r:id="rId546" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5427,7 +5966,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId467" name="A16">
+            <control shapeId="1069" r:id="rId547" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5449,7 +5988,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId468" name="A17">
+            <control shapeId="1070" r:id="rId548" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5471,7 +6010,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId469" name="A18">
+            <control shapeId="1071" r:id="rId549" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5493,7 +6032,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId470" name="A19">
+            <control shapeId="1072" r:id="rId550" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5515,7 +6054,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId471" name="A20">
+            <control shapeId="1073" r:id="rId551" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5537,7 +6076,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId472" name="A21">
+            <control shapeId="1074" r:id="rId552" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5559,7 +6098,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId473" name="A22">
+            <control shapeId="1075" r:id="rId553" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5581,7 +6120,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId474" name="A23">
+            <control shapeId="1076" r:id="rId554" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5603,7 +6142,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId475" name="A24">
+            <control shapeId="1077" r:id="rId555" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5625,7 +6164,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId476" name="A25">
+            <control shapeId="1078" r:id="rId556" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5647,7 +6186,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId477" name="A26">
+            <control shapeId="1079" r:id="rId557" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5669,7 +6208,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId478" name="A27">
+            <control shapeId="1080" r:id="rId558" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5689,6 +6228,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId559" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId560" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
